--- a/QA/testcases/FAF/Patient/F_Patient_Registration_Positive_Yes.xlsx
+++ b/QA/testcases/FAF/Patient/F_Patient_Registration_Positive_Yes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>Step No</t>
   </si>
@@ -160,7 +160,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>DONNA</t>
+    <t>Heart Valve</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -187,7 +187,25 @@
     <t>House income entered</t>
   </si>
   <si>
-    <t>FAF_BREAST_CANCER</t>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>Type Valve disease</t>
+  </si>
+  <si>
+    <t>Typed</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Valve disease</t>
+  </si>
+  <si>
+    <t>Selected</t>
   </si>
   <si>
     <t>FAF_ACTIVE_TREATMENT</t>
@@ -196,10 +214,16 @@
     <t>FAF_LAST6_MONTH</t>
   </si>
   <si>
-    <t>FAF-STAGE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>FAF_HE_PATIENT_INTEND</t>
+    <t>FAF_NEXT60DAYS</t>
+  </si>
+  <si>
+    <t>FAF_FINANCIAL_BURDEN</t>
+  </si>
+  <si>
+    <t>FAF_FINANCIAL_AID</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
   </si>
   <si>
     <t>Click Yes</t>
@@ -208,9 +232,6 @@
     <t>Clicked Yes</t>
   </si>
   <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
     <t>REG_ZIP_CODE</t>
   </si>
   <si>
@@ -476,9 +497,6 @@
   </si>
   <si>
     <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>Enter</t>
   </si>
   <si>
     <t>KeyboardArrowUp</t>
@@ -598,11 +616,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,37 +656,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF353535"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,15 +688,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,18 +718,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,6 +763,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,16 +785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,175 +807,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,17 +1034,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,31 +1058,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,10 +1087,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,10 +1128,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1128,122 +1140,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1255,7 +1267,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1335,7 +1346,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table15" displayName="Table15" ref="A1:H38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table15" displayName="Table15" ref="A1:H42" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Step No"/>
     <tableColumn id="2" name="Action"/>
@@ -1626,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1637,7 +1648,7 @@
     <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="57.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.2857142857143" style="5" customWidth="1"/>
     <col min="5" max="5" width="47.1428571428571" style="4" customWidth="1"/>
     <col min="6" max="6" width="72.7142857142857" style="4" customWidth="1"/>
     <col min="7" max="7" width="84.7142857142857" style="4" customWidth="1"/>
@@ -1954,63 +1965,69 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2020,17 +2037,11 @@
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2040,40 +2051,25 @@
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10001</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2083,113 +2079,116 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10001</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2197,30 +2196,33 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2228,86 +2230,151 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="4">
+      <c r="D40" s="8"/>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2316,10 +2383,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B16 B17:B21 B22:B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B3:B16 B17:B19 B21:B25 B26:B42">
       <formula1>DataList!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16 C17:C21 C22:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C2:C16 C17:C19 C21:C25 C26:C42">
       <formula1>DataList!$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -2356,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2364,20 +2431,20 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2388,20 +2455,20 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2409,47 +2476,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -2459,12 +2526,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2474,55 +2541,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -2532,349 +2599,349 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="3:3">
@@ -2884,17 +2951,17 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="3:3">
